--- a/databases/связи_таблиц.xlsx
+++ b/databases/связи_таблиц.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\G-Doc\YandexDisk\Job\TOP Academy\Python web\221\scripts\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC8B357-3E01-4625-BD3F-21510018122F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36482237-73E3-47E4-855E-F8E56D68DDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C0586CD4-BBF8-400C-B6D3-94B262247F45}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>Студенты</t>
   </si>
@@ -148,13 +148,94 @@
   </si>
   <si>
     <t>lecture_id</t>
+  </si>
+  <si>
+    <t>Студенческие билеты</t>
+  </si>
+  <si>
+    <t>issued</t>
+  </si>
+  <si>
+    <t>expired</t>
+  </si>
+  <si>
+    <t>один-к-одному</t>
+  </si>
+  <si>
+    <t>фыв123</t>
+  </si>
+  <si>
+    <t>ывап456</t>
+  </si>
+  <si>
+    <t>ячсм678</t>
+  </si>
+  <si>
+    <t>йцу1234467</t>
+  </si>
+  <si>
+    <t>ить6789345</t>
+  </si>
+  <si>
+    <t>ыва123шдж0</t>
+  </si>
+  <si>
+    <t>ячсм1234</t>
+  </si>
+  <si>
+    <t>ячсм234а</t>
+  </si>
+  <si>
+    <t>123фыва5</t>
+  </si>
+  <si>
+    <t>цваукп78</t>
+  </si>
+  <si>
+    <t>фыв124</t>
+  </si>
+  <si>
+    <t>ывап457</t>
+  </si>
+  <si>
+    <t>ячсм679</t>
+  </si>
+  <si>
+    <t>йцу1234468</t>
+  </si>
+  <si>
+    <t>ить6789346</t>
+  </si>
+  <si>
+    <t>ыва123шдж1</t>
+  </si>
+  <si>
+    <t>ячсм1235</t>
+  </si>
+  <si>
+    <t>123фыва6</t>
+  </si>
+  <si>
+    <t>цваукп79</t>
+  </si>
+  <si>
+    <t>фыв125</t>
+  </si>
+  <si>
+    <t>ывап458</t>
+  </si>
+  <si>
+    <t>ячсм680</t>
+  </si>
+  <si>
+    <t>sid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +267,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -288,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,67 +384,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,482 +773,794 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4D6BF2-8044-43C6-9D79-878806DB20F9}">
-  <dimension ref="B1:P26"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="3.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="3.7109375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="3.7109375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="3.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3.7109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="1" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:23" s="23" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="H1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="H1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="N1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="2:16" s="1" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="O1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="25"/>
+      <c r="U1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="24"/>
+      <c r="W1" s="26"/>
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="R2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="1" t="s">
+      <c r="S2" s="22"/>
+      <c r="T2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="U2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="V2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="27">
+        <v>2021</v>
+      </c>
+      <c r="D3" s="18">
+        <v>2023</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="O3" s="7">
+        <v>1</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="N3" s="9">
-        <v>1</v>
-      </c>
-      <c r="O3" s="12">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="U3" s="7">
+        <v>1</v>
+      </c>
+      <c r="V3" s="10">
         <v>44919</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="27">
+        <v>2021</v>
+      </c>
+      <c r="D4" s="18">
+        <v>2023</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="H4" s="13">
-        <v>2</v>
-      </c>
-      <c r="I4" s="14" t="s">
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="O4" s="11">
+        <v>2</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="N4" s="9">
-        <v>2</v>
-      </c>
-      <c r="O4" s="12">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="U4" s="7">
+        <v>2</v>
+      </c>
+      <c r="V4" s="10">
         <v>44920</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+    <row r="5" spans="1:23" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="27">
+        <v>2021</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2023</v>
+      </c>
+      <c r="H5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="I5" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="N5" s="9">
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="U5" s="7">
         <v>3</v>
       </c>
-      <c r="O5" s="12">
+      <c r="V5" s="10">
         <v>44921</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+    <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="27">
+        <v>2021</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2023</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="I6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="N6" s="9">
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="U6" s="7">
         <v>4</v>
       </c>
-      <c r="O6" s="12">
+      <c r="V6" s="10">
         <v>44922</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
+    <row r="7" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="27">
+        <v>2021</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2023</v>
+      </c>
+      <c r="H7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="I7" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="N7" s="13">
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="U7" s="11">
         <v>5</v>
       </c>
-      <c r="O7" s="15">
+      <c r="V7" s="13">
         <v>44923</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9">
+    <row r="8" spans="1:23" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="27">
+        <v>2021</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2023</v>
+      </c>
+      <c r="H8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="I8" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="27">
+        <v>2021</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2023</v>
+      </c>
+      <c r="H9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="I9" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="R9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="23"/>
-    </row>
-    <row r="10" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9">
+      <c r="S9" s="20"/>
+    </row>
+    <row r="10" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="27">
+        <v>2021</v>
+      </c>
+      <c r="D10" s="18">
+        <v>2023</v>
+      </c>
+      <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="I10" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-    </row>
-    <row r="11" spans="2:16" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9">
+      <c r="K10" s="8">
+        <v>2</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+    </row>
+    <row r="11" spans="1:23" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="27">
+        <v>2021</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2023</v>
+      </c>
+      <c r="H11" s="7">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="I11" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="10">
-        <v>2</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="8">
+        <v>2</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="R11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="S11" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9">
+    <row r="12" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="27">
+        <v>2021</v>
+      </c>
+      <c r="D12" s="18">
+        <v>2023</v>
+      </c>
+      <c r="H12" s="7">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="I12" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10">
-        <v>2</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="K12" s="9">
-        <v>1</v>
-      </c>
-      <c r="L12" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9">
+      <c r="K12" s="8">
+        <v>2</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="R12" s="7">
+        <v>1</v>
+      </c>
+      <c r="S12" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="27">
+        <v>2021</v>
+      </c>
+      <c r="D13" s="18">
+        <v>2023</v>
+      </c>
+      <c r="H13" s="7">
         <v>11</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="I13" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="10">
-        <v>2</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="K13" s="9">
-        <v>1</v>
-      </c>
-      <c r="L13" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9">
+      <c r="K13" s="8">
+        <v>2</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="R13" s="7">
+        <v>1</v>
+      </c>
+      <c r="S13" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="27">
+        <v>2021</v>
+      </c>
+      <c r="D14" s="18">
+        <v>2023</v>
+      </c>
+      <c r="H14" s="7">
         <v>12</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="I14" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="10">
-        <v>2</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="K14" s="9">
-        <v>2</v>
-      </c>
-      <c r="L14" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9">
+      <c r="K14" s="8">
+        <v>2</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="R14" s="7">
+        <v>2</v>
+      </c>
+      <c r="S14" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="27">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2024</v>
+      </c>
+      <c r="H15" s="7">
         <v>13</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="I15" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10">
-        <v>2</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="K15" s="9">
-        <v>2</v>
-      </c>
-      <c r="L15" s="20">
+      <c r="K15" s="8">
+        <v>2</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="R15" s="7">
+        <v>2</v>
+      </c>
+      <c r="S15" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9">
+    <row r="16" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="27">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="18">
+        <v>2024</v>
+      </c>
+      <c r="H16" s="7">
         <v>14</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="I16" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="10">
-        <v>2</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="K16" s="13">
-        <v>2</v>
-      </c>
-      <c r="L16" s="21">
+      <c r="K16" s="8">
+        <v>2</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="R16" s="11">
+        <v>2</v>
+      </c>
+      <c r="S16" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9">
+    <row r="17" spans="2:13" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="27">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="18">
+        <v>2024</v>
+      </c>
+      <c r="H17" s="7">
         <v>15</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="I17" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="10">
-        <v>2</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9">
+      <c r="K17" s="8">
+        <v>2</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="27">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2024</v>
+      </c>
+      <c r="H18" s="7">
         <v>16</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="I18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="10">
-        <v>2</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9">
+      <c r="K18" s="8">
+        <v>2</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="27">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="18">
+        <v>2024</v>
+      </c>
+      <c r="H19" s="7">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="I19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="10">
-        <v>2</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
+      <c r="K19" s="8">
+        <v>2</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="27">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="18">
+        <v>2024</v>
+      </c>
+      <c r="H20" s="7">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="I20" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="10">
-        <v>2</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9">
+      <c r="K20" s="8">
+        <v>2</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="27">
+        <v>2022</v>
+      </c>
+      <c r="D21" s="18">
+        <v>2024</v>
+      </c>
+      <c r="H21" s="7">
         <v>19</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="I21" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="10">
-        <v>2</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9">
+      <c r="K21" s="8">
+        <v>2</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="27">
+        <v>2022</v>
+      </c>
+      <c r="D22" s="18">
+        <v>2024</v>
+      </c>
+      <c r="H22" s="7">
         <v>20</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="I22" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="10">
-        <v>2</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9">
+      <c r="K22" s="8">
+        <v>2</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="27">
+        <v>2022</v>
+      </c>
+      <c r="D23" s="18">
+        <v>2024</v>
+      </c>
+      <c r="H23" s="7">
         <v>21</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="I23" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="10">
-        <v>2</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9">
+      <c r="K23" s="8">
+        <v>2</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="27">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="18">
+        <v>2024</v>
+      </c>
+      <c r="H24" s="7">
         <v>22</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="I24" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="10">
-        <v>2</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="13">
+      <c r="K24" s="8">
+        <v>2</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="15">
+        <v>2022</v>
+      </c>
+      <c r="D25" s="19">
+        <v>2024</v>
+      </c>
+      <c r="H25" s="11">
         <v>23</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="I25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="14">
-        <v>2</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="2:6" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="K25" s="12">
+        <v>2</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="2:13" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="K9:L10"/>
+  <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="R9:S10"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="R2:S2"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>